--- a/계수.xlsx
+++ b/계수.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\dss15\dss_prjt_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0261901E-F69D-433B-AEE7-7B3CC1AF60F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E94AE-1A0E-4D74-A38D-8B2281A4CC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12130" yWindow="1390" windowWidth="13240" windowHeight="12900" xr2:uid="{AB2166DE-C89F-4C33-BE2B-F626AEB58B53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{AB2166DE-C89F-4C33-BE2B-F626AEB58B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,19 +483,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7D27D3-F26D-40B2-A1D0-A2D80C8353CB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,11 +513,11 @@
       <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -527,14 +527,17 @@
       <c r="C4" s="1">
         <v>0.15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -544,11 +547,14 @@
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -558,66 +564,69 @@
       <c r="C6" s="1">
         <v>0.35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>3</v>
       </c>
     </row>

--- a/계수.xlsx
+++ b/계수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\dss15\dss_prjt_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E94AE-1A0E-4D74-A38D-8B2281A4CC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5119A7DD-148C-4B62-B2BB-AFB210CCBA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{AB2166DE-C89F-4C33-BE2B-F626AEB58B53}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>네이버</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,23 +87,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 나누기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0인 값들 median으로?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false인 값들 median으로?</t>
+    <t>* 모든 플랫폼 5점 만점으로 환산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -111,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,25 +139,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,151 +507,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7D27D3-F26D-40B2-A1D0-A2D80C8353CB}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="5" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>177</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B3" s="4">
         <v>2.7</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C3" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>8.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>5.5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
